--- a/RESULTADOS/economicos_determinista.xlsx
+++ b/RESULTADOS/economicos_determinista.xlsx
@@ -458,17 +458,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.188.397,54</t>
+          <t>1.205.511,52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>469.239,18</t>
+          <t>327.191,88</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.181.762,36</t>
+          <t>1.170.211,52</t>
         </is>
       </c>
     </row>
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>281.136,58</t>
+          <t>275.744,25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93.067,66</t>
+          <t>67.640,18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>238.152,25</t>
+          <t>232.433,11</t>
         </is>
       </c>
     </row>
@@ -502,12 +502,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>178.727,50</t>
+          <t>195.836,70</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>115.754,10</t>
+          <t>56.102,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>56.116,94</t>
+          <t>31.384,78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52.056,14</t>
+          <t>7.963,55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>114.215,02</t>
+          <t>122.339,64</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.267.152,45</t>
+          <t>2.290.318,62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.722,94</t>
+          <t>2.537,15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>624.929,98</t>
+          <t>640.492,82</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>102.758,44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>253.979,54</t>
+          <t>255.087,73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30.420,73</t>
+          <t>35.475,78</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.820,64</t>
+          <t>89.214,33</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-16.109,30</t>
+          <t>-15.705,27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-10.147,01</t>
+          <t>-9.448,23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-13.586,06</t>
+          <t>-13.144,34</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161.480,91</t>
+          <t>136.487,19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>109.482,60</t>
+          <t>58.547,09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>160.594,41</t>
+          <t>163.150,13</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4.370.882,16</t>
+          <t>4.374.665,52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>862.596,33</t>
+          <t>648.767,84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.714.010,64</t>
+          <t>2.724.819,26</t>
         </is>
       </c>
     </row>
